--- a/biology/Zoologie/Hespérie_de_Barbarie/Hespérie_de_Barbarie.xlsx
+++ b/biology/Zoologie/Hespérie_de_Barbarie/Hespérie_de_Barbarie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_Barbarie</t>
+          <t>Hespérie_de_Barbarie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muschampia mohammed
 L’Hespérie de Barbarie (Muschampia mohammed) est une espèce d'insectes lépidoptères (papillons) qui appartient à la famille des Hesperiidae, à la sous-famille des Pyrginae et au genre Muschampia.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_Barbarie</t>
+          <t>Hespérie_de_Barbarie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Muschampia mohammed a été décrit par Charles Oberthür en 1887 sous le nom initial de Syrichthus mohammed.
-Synonyme : Hesperia Caïd Le Cerf, 1923[1].
-Noms vernaculaires
-L'Hespérie de Barbarie se nomme Barbary Skipper oen anglais[1].
+Synonyme : Hesperia Caïd Le Cerf, 1923.
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_Barbarie</t>
+          <t>Hespérie_de_Barbarie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,13 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Hespérie de Barbarie est un petit papillon au dessus de couleur marron, avec une bordure blanche indentée de marron au bord externe qui est ondulé aux ailes postérieures. L'ornementation consiste en une ligne submarginale de discrets chevrons blancs et des taches blanches en alignées[2].
-Le revers est ocre avec la même ornementation blanche.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de Barbarie se nomme Barbary Skipper oen anglais.
 </t>
         </is>
       </c>
@@ -560,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_Barbarie</t>
+          <t>Hespérie_de_Barbarie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,15 +592,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'Hespérie de Barbarie vole en deux ou trois générations entre mars et octobre[2].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Phlomis, Phlomis bovei et Phlomis crinita[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de Barbarie est un petit papillon au dessus de couleur marron, avec une bordure blanche indentée de marron au bord externe qui est ondulé aux ailes postérieures. L'ornementation consiste en une ligne submarginale de discrets chevrons blancs et des taches blanches en alignées.
+Le revers est ocre avec la même ornementation blanche.
 </t>
         </is>
       </c>
@@ -594,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hesp%C3%A9rie_de_Barbarie</t>
+          <t>Hespérie_de_Barbarie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,18 +626,164 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de Barbarie vole en deux ou trois générations entre mars et octobre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hespérie_de_Barbarie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_Barbarie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Phlomis, Phlomis bovei et Phlomis crinita.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hespérie_de_Barbarie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_Barbarie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hespérie de Barbarie est présente au Maroc, en Algérie et en Tunisie[1],[2].
-Biotope
-L'Hespérie de Barbarie réside dans les lieux rocheux fleuris[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de Barbarie est présente au Maroc, en Algérie et en Tunisie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hespérie_de_Barbarie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_Barbarie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hespérie de Barbarie réside dans les lieux rocheux fleuris.
 Sur les autres projets Wikimedia :
 Hespérie de Barbarie, sur Wikimedia CommonsHespérie de Barbarie, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hespérie_de_Barbarie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hesp%C3%A9rie_de_Barbarie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
